--- a/2_SHC/TeenAstro_Redux__SHC_v1.5.2__4_BOM.xlsx
+++ b/2_SHC/TeenAstro_Redux__SHC_v1.5.2__4_BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="138">
   <si>
     <t>No.</t>
   </si>
@@ -97,7 +97,7 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>39516914</t>
+    <t>43333719</t>
   </si>
   <si>
     <t>0.014</t>
@@ -127,10 +127,10 @@
     <t>100uF</t>
   </si>
   <si>
-    <t>343586</t>
-  </si>
-  <si>
-    <t>0.94</t>
+    <t>359967</t>
+  </si>
+  <si>
+    <t>0.99</t>
   </si>
   <si>
     <t>3</t>
@@ -160,10 +160,10 @@
     <t>Multilayer Ceramic Capacitors MLCC - SMD/SMT</t>
   </si>
   <si>
-    <t>1375209</t>
-  </si>
-  <si>
-    <t>0.0608</t>
+    <t>2931171</t>
+  </si>
+  <si>
+    <t>0.0599</t>
   </si>
   <si>
     <t>BasicPart</t>
@@ -193,7 +193,7 @@
     <t>Audio Connectors</t>
   </si>
   <si>
-    <t>746</t>
+    <t>5026</t>
   </si>
   <si>
     <t>1.186</t>
@@ -202,6 +202,39 @@
     <t>ExtendedPart</t>
   </si>
   <si>
+    <t>2.54mm 1*5P Header</t>
+  </si>
+  <si>
+    <t>DISPLAY1</t>
+  </si>
+  <si>
+    <t>HDR-TH_5P-P2.54-V</t>
+  </si>
+  <si>
+    <t>2.54mm1*5PHeader</t>
+  </si>
+  <si>
+    <t>ReliaPro</t>
+  </si>
+  <si>
+    <t>C50951</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>2&amp;quot;42 OLED - DIY More</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.095</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>KT-0603R</t>
   </si>
   <si>
@@ -217,16 +250,16 @@
     <t>C2286</t>
   </si>
   <si>
-    <t>2883233</t>
-  </si>
-  <si>
-    <t>0.0355</t>
+    <t>2784512</t>
+  </si>
+  <si>
+    <t>0.0352</t>
   </si>
   <si>
     <t>Basic Part</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
   </si>
   <si>
     <t>0603WAF4701T5E</t>
@@ -247,13 +280,13 @@
     <t>4.7K</t>
   </si>
   <si>
-    <t>5611760</t>
-  </si>
-  <si>
-    <t>0.00652</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>11036892</t>
+  </si>
+  <si>
+    <t>0.00648</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>0603WAF1002T5E</t>
@@ -268,13 +301,13 @@
     <t>10K</t>
   </si>
   <si>
-    <t>25292393</t>
-  </si>
-  <si>
-    <t>0.00573</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>15865852</t>
+  </si>
+  <si>
+    <t>0.00564</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>0603WAF4700T5E</t>
@@ -295,19 +328,19 @@
     <t>C23179</t>
   </si>
   <si>
-    <t>1890338</t>
-  </si>
-  <si>
-    <t>0.00657</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>2642829</t>
+  </si>
+  <si>
+    <t>0.00656</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>0805W8F0000T5E_C17477</t>
   </si>
   <si>
-    <t>R102,R107,R108</t>
+    <t>R102,R103,R105,R106,R107,R108</t>
   </si>
   <si>
     <t>R0805</t>
@@ -322,19 +355,46 @@
     <t>C17477</t>
   </si>
   <si>
+    <t>no,yes</t>
+  </si>
+  <si>
     <t>Resistors</t>
   </si>
   <si>
     <t>Chip Resistor - Surface Mount</t>
   </si>
   <si>
-    <t>1460895</t>
-  </si>
-  <si>
-    <t>0.0107</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>4221224</t>
+  </si>
+  <si>
+    <t>0.0108</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>TL3300CF260Q</t>
+  </si>
+  <si>
+    <t>SW1,SW2,SW3,SW4,SW5</t>
+  </si>
+  <si>
+    <t>SWITCH_NAVI</t>
+  </si>
+  <si>
+    <t>E-SWITCH</t>
+  </si>
+  <si>
+    <t>612-TL3300CF260Q</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>Momentary Switch</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t>TS-1187A-B-A-B</t>
@@ -352,13 +412,13 @@
     <t>C318884</t>
   </si>
   <si>
-    <t>245378</t>
-  </si>
-  <si>
-    <t>0.107</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>607990</t>
+  </si>
+  <si>
+    <t>0.109</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>WEMOS D1</t>
@@ -741,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -1035,22 +1095,22 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M6" t="s">
         <v>22</v>
@@ -1059,42 +1119,42 @@
         <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q6" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>74</v>
       </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>72</v>
-      </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
         <v>25</v>
@@ -1103,7 +1163,7 @@
         <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
@@ -1112,42 +1172,42 @@
         <v>22</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q7" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
         <v>25</v>
@@ -1156,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
@@ -1165,10 +1225,10 @@
         <v>22</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q8" t="s">
         <v>30</v>
@@ -1176,31 +1236,31 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
         <v>25</v>
@@ -1209,7 +1269,7 @@
         <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
@@ -1218,42 +1278,42 @@
         <v>22</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q9" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
         <v>99</v>
       </c>
-      <c r="F10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" t="s">
-        <v>101</v>
-      </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
         <v>25</v>
@@ -1262,13 +1322,13 @@
         <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="O10" t="s">
         <v>105</v>
@@ -1277,7 +1337,7 @@
         <v>106</v>
       </c>
       <c r="Q10" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1285,7 +1345,7 @@
         <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
         <v>108</v>
@@ -1297,97 +1357,203 @@
         <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
         <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q11" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" t="s">
         <v>26</v>
       </c>
-      <c r="L12" t="s">
-        <v>116</v>
-      </c>
-      <c r="M12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
     </row>

--- a/2_SHC/TeenAstro_Redux__SHC_v1.5.2__4_BOM.xlsx
+++ b/2_SHC/TeenAstro_Redux__SHC_v1.5.2__4_BOM.xlsx
@@ -97,7 +97,7 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>43333719</t>
+    <t>43333683</t>
   </si>
   <si>
     <t>0.014</t>
@@ -187,6 +187,9 @@
     <t>C2939185</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>Connectors</t>
   </si>
   <si>
@@ -220,9 +223,6 @@
     <t>C50951</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>2&amp;quot;42 OLED - DIY More</t>
   </si>
   <si>
@@ -301,7 +301,7 @@
     <t>10K</t>
   </si>
   <si>
-    <t>15865852</t>
+    <t>15865827</t>
   </si>
   <si>
     <t>0.00564</t>
@@ -1054,25 +1054,25 @@
         <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1083,31 +1083,31 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="L6" t="s">
         <v>70</v>
@@ -1425,7 +1425,7 @@
         <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="L12" t="s">
         <v>126</v>
